--- a/Code/Results/Cases/Case_6_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_37/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.357063804690767</v>
+        <v>3.380471325593533</v>
       </c>
       <c r="C2">
-        <v>0.4415767629608069</v>
+        <v>0.458993942347405</v>
       </c>
       <c r="D2">
-        <v>0.002266038589990416</v>
+        <v>0.06470351359848792</v>
       </c>
       <c r="E2">
-        <v>0.02569678354626248</v>
+        <v>0.04188940477610181</v>
       </c>
       <c r="F2">
-        <v>2.681127524797532</v>
+        <v>0.7737582037959214</v>
       </c>
       <c r="G2">
-        <v>0.0008357188314981521</v>
+        <v>0.0008127002152426669</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07168803202690555</v>
+        <v>0.05019714565715905</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2561308298592166</v>
+        <v>0.317785087085781</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.995254474730643</v>
+        <v>1.975555841067148</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.938989103449558</v>
+        <v>2.942993897584529</v>
       </c>
       <c r="C3">
-        <v>0.3821044313774848</v>
+        <v>0.4117345097129999</v>
       </c>
       <c r="D3">
-        <v>0.001891346463543719</v>
+        <v>0.05977972977471779</v>
       </c>
       <c r="E3">
-        <v>0.02578893026215656</v>
+        <v>0.04232504686842464</v>
       </c>
       <c r="F3">
-        <v>2.520136486541432</v>
+        <v>0.7592727633748311</v>
       </c>
       <c r="G3">
-        <v>0.0008445427836507462</v>
+        <v>0.0008175432357842981</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07252633065768244</v>
+        <v>0.05305934154567282</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2296249026425983</v>
+        <v>0.2819161288155954</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.873351141158992</v>
+        <v>1.954251557099553</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.686624255049651</v>
+        <v>2.675185593221499</v>
       </c>
       <c r="C4">
-        <v>0.3459603081498699</v>
+        <v>0.3827432431359625</v>
       </c>
       <c r="D4">
-        <v>0.001677980489306563</v>
+        <v>0.05679435175171221</v>
       </c>
       <c r="E4">
-        <v>0.02586377178793065</v>
+        <v>0.04265118474950125</v>
       </c>
       <c r="F4">
-        <v>2.426568295037313</v>
+        <v>0.7523690192880821</v>
       </c>
       <c r="G4">
-        <v>0.0008501071281252471</v>
+        <v>0.0008206126806734142</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07312057495618873</v>
+        <v>0.05491256250680943</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2136966410917296</v>
+        <v>0.2600532633992714</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.802569041115149</v>
+        <v>1.946990084041772</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.584744468907957</v>
+        <v>2.566207911567233</v>
       </c>
       <c r="C5">
-        <v>0.3313074456166305</v>
+        <v>0.3709316114523915</v>
       </c>
       <c r="D5">
-        <v>0.001594550266611705</v>
+        <v>0.05558670261627441</v>
       </c>
       <c r="E5">
-        <v>0.02589875127833086</v>
+        <v>0.04279848889883908</v>
       </c>
       <c r="F5">
-        <v>2.389658527705706</v>
+        <v>0.7500321466980751</v>
       </c>
       <c r="G5">
-        <v>0.0008524131174304959</v>
+        <v>0.0008218881070783305</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0733819694544664</v>
+        <v>0.05569135176040918</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2072845053227326</v>
+        <v>0.2511799412661446</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.7746627513731</v>
+        <v>1.945422308255445</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.567881879909748</v>
+        <v>2.548120411142747</v>
       </c>
       <c r="C6">
-        <v>0.3288784688385533</v>
+        <v>0.3689703402737905</v>
       </c>
       <c r="D6">
-        <v>0.001580890674690139</v>
+        <v>0.05538669514027106</v>
       </c>
       <c r="E6">
-        <v>0.0259048271631972</v>
+        <v>0.0428238085174435</v>
       </c>
       <c r="F6">
-        <v>2.383600384308167</v>
+        <v>0.7496722090140864</v>
       </c>
       <c r="G6">
-        <v>0.0008527983950557305</v>
+        <v>0.0008221013910704015</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07342651437392789</v>
+        <v>0.05582207931411887</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2062243007428037</v>
+        <v>0.2497085803983055</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.770083237922663</v>
+        <v>1.945243980670853</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.685246540465243</v>
+        <v>2.673715307425653</v>
       </c>
       <c r="C7">
-        <v>0.3457624080505184</v>
+        <v>0.382583942163933</v>
       </c>
       <c r="D7">
-        <v>0.001676841923164751</v>
+        <v>0.05677802963481327</v>
       </c>
       <c r="E7">
-        <v>0.02586422553030054</v>
+        <v>0.04265311348617207</v>
       </c>
       <c r="F7">
-        <v>2.426065713475495</v>
+        <v>0.7523356050782866</v>
       </c>
       <c r="G7">
-        <v>0.0008501380696196334</v>
+        <v>0.0008206297813229679</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07312402329656287</v>
+        <v>0.05492297068222518</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2136098564342461</v>
+        <v>0.2599334547181513</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.802188996230711</v>
+        <v>1.94696339936857</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.211930664498311</v>
+        <v>3.229433362577538</v>
       </c>
       <c r="C8">
-        <v>0.4209824755001534</v>
+        <v>0.4426909028970272</v>
       </c>
       <c r="D8">
-        <v>0.002132946777192224</v>
+        <v>0.0629975635565998</v>
       </c>
       <c r="E8">
-        <v>0.02572469493892982</v>
+        <v>0.04202722616021504</v>
       </c>
       <c r="F8">
-        <v>2.624453962777949</v>
+        <v>0.76833564635497</v>
       </c>
       <c r="G8">
-        <v>0.000838731985009061</v>
+        <v>0.0008143505186208829</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07196009442215612</v>
+        <v>0.05116382969847511</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2469144027277252</v>
+        <v>0.3053813043886038</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.952324875758023</v>
+        <v>1.966957726649724</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.285643865441102</v>
+        <v>4.327864058960358</v>
       </c>
       <c r="C9">
-        <v>0.5723216483343379</v>
+        <v>0.5609726870695795</v>
       </c>
       <c r="D9">
-        <v>0.003194763210281337</v>
+        <v>0.07552402570037486</v>
       </c>
       <c r="E9">
-        <v>0.02560160202482731</v>
+        <v>0.04128182452264006</v>
       </c>
       <c r="F9">
-        <v>3.060778101356021</v>
+        <v>0.816658061684862</v>
       </c>
       <c r="G9">
-        <v>0.0008174438372491712</v>
+        <v>0.0008027725763411598</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07034632820268172</v>
+        <v>0.0445765092552719</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3153945120481723</v>
+        <v>0.3960009757933562</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.283237520868056</v>
+        <v>2.055797092854249</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.109628348391823</v>
+        <v>5.143673400474199</v>
       </c>
       <c r="C10">
-        <v>0.6872375006374796</v>
+        <v>0.6484428614038222</v>
       </c>
       <c r="D10">
-        <v>0.004133248147150326</v>
+        <v>0.08497375335125668</v>
       </c>
       <c r="E10">
-        <v>0.0256117926649635</v>
+        <v>0.04105246813099761</v>
       </c>
       <c r="F10">
-        <v>3.418572464689163</v>
+        <v>0.8642085816391756</v>
       </c>
       <c r="G10">
-        <v>0.0008023332114754299</v>
+        <v>0.0007946782029791632</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0696267048314354</v>
+        <v>0.04025026301273815</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3683000166772956</v>
+        <v>0.4638280138666602</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.555206431832701</v>
+        <v>2.156467952903824</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.494744048391681</v>
+        <v>5.517572974525535</v>
       </c>
       <c r="C11">
-        <v>0.7406869710774515</v>
+        <v>0.6884370131781168</v>
       </c>
       <c r="D11">
-        <v>0.004609774984777992</v>
+        <v>0.08933726277485476</v>
       </c>
       <c r="E11">
-        <v>0.02564059423785814</v>
+        <v>0.04102307538696337</v>
       </c>
       <c r="F11">
-        <v>3.591590207180474</v>
+        <v>0.8888705399942722</v>
       </c>
       <c r="G11">
-        <v>0.0007955413302682478</v>
+        <v>0.0007910765977970062</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06941547626892941</v>
+        <v>0.03840210081430406</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3931016712811868</v>
+        <v>0.4950373716359167</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.686897403754571</v>
+        <v>2.211194314635918</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.642309134584934</v>
+        <v>5.659636021054723</v>
       </c>
       <c r="C12">
-        <v>0.7611306942997373</v>
+        <v>0.7036180275565016</v>
       </c>
       <c r="D12">
-        <v>0.004798882523095571</v>
+        <v>0.090999912361724</v>
       </c>
       <c r="E12">
-        <v>0.02565520150232015</v>
+        <v>0.04102324710282268</v>
       </c>
       <c r="F12">
-        <v>3.65879082983966</v>
+        <v>0.8986828144908827</v>
       </c>
       <c r="G12">
-        <v>0.0007929780985595617</v>
+        <v>0.0007897235759381473</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06935363173747078</v>
+        <v>0.03772026414358187</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4026154190655973</v>
+        <v>0.5069138503600215</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.738075698015834</v>
+        <v>2.233314992338421</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.610447031623835</v>
+        <v>5.629017793265689</v>
       </c>
       <c r="C13">
-        <v>0.7567181123196463</v>
+        <v>0.700346803668225</v>
       </c>
       <c r="D13">
-        <v>0.004757742826331679</v>
+        <v>0.09064135738336176</v>
       </c>
       <c r="E13">
-        <v>0.0256518870354947</v>
+        <v>0.04102269867475705</v>
       </c>
       <c r="F13">
-        <v>3.644239531013227</v>
+        <v>0.8965478846909178</v>
       </c>
       <c r="G13">
-        <v>0.0007935298027099678</v>
+        <v>0.0007900145045032717</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06936611912530921</v>
+        <v>0.03786629516272733</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4005607595956207</v>
+        <v>0.504353329783271</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.726992441744343</v>
+        <v>2.228486881028999</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.506848079670476</v>
+        <v>5.529250605924858</v>
       </c>
       <c r="C14">
-        <v>0.7423645919551802</v>
+        <v>0.6896851996015982</v>
       </c>
       <c r="D14">
-        <v>0.004625149847980126</v>
+        <v>0.08947383802937736</v>
       </c>
       <c r="E14">
-        <v>0.02564172041068691</v>
+        <v>0.0410228598554081</v>
       </c>
       <c r="F14">
-        <v>3.597083831799324</v>
+        <v>0.8896680899824077</v>
       </c>
       <c r="G14">
-        <v>0.0007953302962961928</v>
+        <v>0.0007909650714287369</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06941001572496219</v>
+        <v>0.03834563979121164</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3938818291590422</v>
+        <v>0.4960132474269017</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.691080607293898</v>
+        <v>2.212985519041609</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.443624090654907</v>
+        <v>5.468204572654997</v>
       </c>
       <c r="C15">
-        <v>0.7336002724682942</v>
+        <v>0.6831595733964093</v>
       </c>
       <c r="D15">
-        <v>0.004545109729484409</v>
+        <v>0.08876006801625635</v>
       </c>
       <c r="E15">
-        <v>0.02563598224788421</v>
+        <v>0.04102444670445315</v>
       </c>
       <c r="F15">
-        <v>3.568425365576473</v>
+        <v>0.8855168224626766</v>
       </c>
       <c r="G15">
-        <v>0.0007964341859363768</v>
+        <v>0.000791548707691136</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06943931247752388</v>
+        <v>0.03864162359777801</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3898071855153233</v>
+        <v>0.4909125059061807</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.669259372734231</v>
+        <v>2.203675922760908</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.084687780865238</v>
+        <v>5.119300473373414</v>
       </c>
       <c r="C16">
-        <v>0.6837709359683402</v>
+        <v>0.6458338150151519</v>
       </c>
       <c r="D16">
-        <v>0.00410322892411763</v>
+        <v>0.08468997220554542</v>
       </c>
       <c r="E16">
-        <v>0.02561041527877617</v>
+        <v>0.04105594110524358</v>
       </c>
       <c r="F16">
-        <v>3.407488863145971</v>
+        <v>0.8626609907275906</v>
       </c>
       <c r="G16">
-        <v>0.0008027784723386424</v>
+        <v>0.0007949151341016596</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06964296520931867</v>
+        <v>0.04037352257779592</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3666952952566476</v>
+        <v>0.4617961437419353</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.546774007961019</v>
+        <v>2.153080595867351</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.867294111648221</v>
+        <v>4.906023526495858</v>
       </c>
       <c r="C17">
-        <v>0.653526150293203</v>
+        <v>0.622992469183373</v>
       </c>
       <c r="D17">
-        <v>0.003845863778834335</v>
+        <v>0.08221035568104895</v>
       </c>
       <c r="E17">
-        <v>0.02560107118943833</v>
+        <v>0.04109481852110974</v>
       </c>
       <c r="F17">
-        <v>3.311525678031018</v>
+        <v>0.8494417122849427</v>
       </c>
       <c r="G17">
-        <v>0.0008066894166698011</v>
+        <v>0.0007970004412261545</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06979861410640709</v>
+        <v>0.04146722770099931</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3527159800388091</v>
+        <v>0.4440299258780271</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.473784514972579</v>
+        <v>2.124406745249701</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.743205827277563</v>
+        <v>4.783609426559906</v>
       </c>
       <c r="C18">
-        <v>0.6362382764052938</v>
+        <v>0.6098734441903275</v>
       </c>
       <c r="D18">
-        <v>0.003702398729427792</v>
+        <v>0.08079018072900368</v>
       </c>
       <c r="E18">
-        <v>0.02559795608759252</v>
+        <v>0.04112420010460305</v>
       </c>
       <c r="F18">
-        <v>3.257281530096861</v>
+        <v>0.8421212086078214</v>
       </c>
       <c r="G18">
-        <v>0.0008089468147538525</v>
+        <v>0.0007982074864945069</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06989897356912778</v>
+        <v>0.04210753013303048</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3447435089126429</v>
+        <v>0.4338441687163623</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.432542178988939</v>
+        <v>2.108747628295873</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.701347827639836</v>
+        <v>4.742204099272897</v>
       </c>
       <c r="C19">
-        <v>0.6304024861889275</v>
+        <v>0.6054345834970434</v>
       </c>
       <c r="D19">
-        <v>0.003654565366488782</v>
+        <v>0.08031034220432076</v>
       </c>
       <c r="E19">
-        <v>0.02559728303942777</v>
+        <v>0.04113533855496776</v>
       </c>
       <c r="F19">
-        <v>3.239072888813581</v>
+        <v>0.8396901028475696</v>
       </c>
       <c r="G19">
-        <v>0.0008097125801010054</v>
+        <v>0.0007986175042843293</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06993477332794029</v>
+        <v>0.04232623172097583</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3420553953885843</v>
+        <v>0.4304008877119401</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.418700566767782</v>
+        <v>2.103585556559722</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.890335915715468</v>
+        <v>4.928700083181866</v>
       </c>
       <c r="C20">
-        <v>0.6567343316778533</v>
+        <v>0.6254219851841469</v>
       </c>
       <c r="D20">
-        <v>0.003872778057228743</v>
+        <v>0.08247368375057107</v>
       </c>
       <c r="E20">
-        <v>0.02560183051152176</v>
+        <v>0.04108994969201163</v>
       </c>
       <c r="F20">
-        <v>3.321641243630779</v>
+        <v>0.8508193886254674</v>
       </c>
       <c r="G20">
-        <v>0.0008062722907529789</v>
+        <v>0.0007967776721109487</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06978091383047413</v>
+        <v>0.04134963294082272</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3541969468986537</v>
+        <v>0.4459177147170124</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.481476740782114</v>
+        <v>2.127372092101666</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.537228473126618</v>
+        <v>5.55854111435707</v>
       </c>
       <c r="C21">
-        <v>0.7465747424429594</v>
+        <v>0.6928157339854408</v>
       </c>
       <c r="D21">
-        <v>0.004663847271233479</v>
+        <v>0.08981647955910432</v>
       </c>
       <c r="E21">
-        <v>0.02564460419946446</v>
+        <v>0.04102250139690966</v>
       </c>
       <c r="F21">
-        <v>3.610887144314432</v>
+        <v>0.8916756926277287</v>
       </c>
       <c r="G21">
-        <v>0.0007948012380248079</v>
+        <v>0.0007906855793493571</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06939661738722691</v>
+        <v>0.03820434897215019</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3958401442955193</v>
+        <v>0.4984612926075442</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.70159182324511</v>
+        <v>2.217499785660067</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.970237025888537</v>
+        <v>5.972989235144894</v>
       </c>
       <c r="C22">
-        <v>0.8064970277811483</v>
+        <v>0.7370754698349344</v>
       </c>
       <c r="D22">
-        <v>0.00523221526725326</v>
+        <v>0.09467586920283821</v>
       </c>
       <c r="E22">
-        <v>0.02569425897450195</v>
+        <v>0.04104456970678072</v>
       </c>
       <c r="F22">
-        <v>3.809850793474112</v>
+        <v>0.921156210859337</v>
       </c>
       <c r="G22">
-        <v>0.0007873532534745364</v>
+        <v>0.0007867667635886932</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06925202172226008</v>
+        <v>0.03625418130194102</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4237760786408273</v>
+        <v>0.533144420893862</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.853176704296672</v>
+        <v>2.284605419384462</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.738104141556676</v>
+        <v>5.751506762241377</v>
       </c>
       <c r="C23">
-        <v>0.7743921788537875</v>
+        <v>0.7134312119389961</v>
       </c>
       <c r="D23">
-        <v>0.004923595667559511</v>
+        <v>0.09207644897837497</v>
       </c>
       <c r="E23">
-        <v>0.0256656885179094</v>
+        <v>0.04102655485297291</v>
       </c>
       <c r="F23">
-        <v>3.702675834959251</v>
+        <v>0.9051544674140217</v>
       </c>
       <c r="G23">
-        <v>0.0007913250267513425</v>
+        <v>0.000788852836059357</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06931891666834034</v>
+        <v>0.03728509733957974</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.408794338063899</v>
+        <v>0.5145994704056136</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.771505990361774</v>
+        <v>2.247999651585985</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.879915949349197</v>
+        <v>4.918447389381811</v>
       </c>
       <c r="C24">
-        <v>0.6552836031633262</v>
+        <v>0.6243235617364178</v>
       </c>
       <c r="D24">
-        <v>0.003860596214670942</v>
+        <v>0.08235461641498887</v>
       </c>
       <c r="E24">
-        <v>0.02560148020875808</v>
+        <v>0.04109212903065362</v>
       </c>
       <c r="F24">
-        <v>3.317065126355232</v>
+        <v>0.850195673568976</v>
       </c>
       <c r="G24">
-        <v>0.0008064608453204178</v>
+        <v>0.0007968783604979454</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06978888235920877</v>
+        <v>0.04140276171826507</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3535272023169256</v>
+        <v>0.4450641578392975</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.477996854013469</v>
+        <v>2.126028894829176</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.989816271285747</v>
+        <v>4.029436152684355</v>
       </c>
       <c r="C25">
-        <v>0.5308365609415659</v>
+        <v>0.5288990840504084</v>
       </c>
       <c r="D25">
-        <v>0.002884266171579775</v>
+        <v>0.07209548654383013</v>
       </c>
       <c r="E25">
-        <v>0.0256179373798151</v>
+        <v>0.04142944758854838</v>
       </c>
       <c r="F25">
-        <v>2.936868578556329</v>
+        <v>0.8016015422670506</v>
       </c>
       <c r="G25">
-        <v>0.0008230997170841763</v>
+        <v>0.0008058295891078013</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07070566822747182</v>
+        <v>0.04627109027212217</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2964657999189768</v>
+        <v>0.3712925723315692</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.189173634709107</v>
+        <v>2.025941972966052</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.380471325593533</v>
+        <v>3.396956060269474</v>
       </c>
       <c r="C2">
-        <v>0.458993942347405</v>
+        <v>0.5506335015766979</v>
       </c>
       <c r="D2">
-        <v>0.06470351359848792</v>
+        <v>0.09775745946816272</v>
       </c>
       <c r="E2">
-        <v>0.04188940477610181</v>
+        <v>0.04713617957527738</v>
       </c>
       <c r="F2">
-        <v>0.7737582037959214</v>
+        <v>0.4884488555690041</v>
       </c>
       <c r="G2">
-        <v>0.0008127002152426669</v>
+        <v>0.2778916000796485</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0008330642211933359</v>
       </c>
       <c r="J2">
-        <v>0.05019714565715905</v>
+        <v>0.2643401373463519</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2357947334788637</v>
       </c>
       <c r="L2">
-        <v>0.317785087085781</v>
+        <v>0.04952578285739662</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3469219955014466</v>
       </c>
       <c r="O2">
-        <v>1.975555841067148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.090856055240906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.942993897584529</v>
+        <v>2.960366537827156</v>
       </c>
       <c r="C3">
-        <v>0.4117345097129999</v>
+        <v>0.4959617594788597</v>
       </c>
       <c r="D3">
-        <v>0.05977972977471779</v>
+        <v>0.09109700315246272</v>
       </c>
       <c r="E3">
-        <v>0.04232504686842464</v>
+        <v>0.04757610817358948</v>
       </c>
       <c r="F3">
-        <v>0.7592727633748311</v>
+        <v>0.4817898753092393</v>
       </c>
       <c r="G3">
-        <v>0.0008175432357842981</v>
+        <v>0.273625378328795</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001570996060851648</v>
       </c>
       <c r="J3">
-        <v>0.05305934154567282</v>
+        <v>0.2680677999297316</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2495341510940463</v>
       </c>
       <c r="L3">
-        <v>0.2819161288155954</v>
+        <v>0.05161635466762471</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.307688272002423</v>
       </c>
       <c r="O3">
-        <v>1.954251557099553</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.089270508661912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.675185593221499</v>
+        <v>2.691902590899019</v>
       </c>
       <c r="C4">
-        <v>0.3827432431359625</v>
+        <v>0.4626056085561743</v>
       </c>
       <c r="D4">
-        <v>0.05679435175171221</v>
+        <v>0.08708431465520761</v>
       </c>
       <c r="E4">
-        <v>0.04265118474950125</v>
+        <v>0.04789738927824327</v>
       </c>
       <c r="F4">
-        <v>0.7523690192880821</v>
+        <v>0.4785480597228329</v>
       </c>
       <c r="G4">
-        <v>0.0008206126806734142</v>
+        <v>0.2716379910612261</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002275973976955559</v>
       </c>
       <c r="J4">
-        <v>0.05491256250680943</v>
+        <v>0.2707731457425382</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2585085837936774</v>
       </c>
       <c r="L4">
-        <v>0.2600532633992714</v>
+        <v>0.05295756158694342</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2838190382133092</v>
       </c>
       <c r="O4">
-        <v>1.946990084041772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.090500061171596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.566207911567233</v>
+        <v>2.58237291669144</v>
       </c>
       <c r="C5">
-        <v>0.3709316114523915</v>
+        <v>0.4497874985597718</v>
       </c>
       <c r="D5">
-        <v>0.05558670261627441</v>
+        <v>0.08548647578725621</v>
       </c>
       <c r="E5">
-        <v>0.04279848889883908</v>
+        <v>0.04802136982867999</v>
       </c>
       <c r="F5">
-        <v>0.7500321466980751</v>
+        <v>0.4770197458344683</v>
       </c>
       <c r="G5">
-        <v>0.0008218881070783305</v>
+        <v>0.2706362968254368</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00269674300351852</v>
       </c>
       <c r="J5">
-        <v>0.05569135176040918</v>
+        <v>0.271796265207854</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2620937293486669</v>
       </c>
       <c r="L5">
-        <v>0.2511799412661446</v>
+        <v>0.05350874748934792</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2743874928489731</v>
       </c>
       <c r="O5">
-        <v>1.945422308255445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.090425836490027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.548120411142747</v>
+        <v>2.564162315215754</v>
       </c>
       <c r="C6">
-        <v>0.3689703402737905</v>
+        <v>0.4485525969339506</v>
       </c>
       <c r="D6">
-        <v>0.05538669514027106</v>
+        <v>0.0852451957611251</v>
       </c>
       <c r="E6">
-        <v>0.0428238085174435</v>
+        <v>0.04801877428841905</v>
       </c>
       <c r="F6">
-        <v>0.7496722090140864</v>
+        <v>0.4762745615571191</v>
       </c>
       <c r="G6">
-        <v>0.0008221013910704015</v>
+        <v>0.2700593714209703</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.002867158619566545</v>
       </c>
       <c r="J6">
-        <v>0.05582207931411887</v>
+        <v>0.2717511900935321</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2624493237889407</v>
       </c>
       <c r="L6">
-        <v>0.2497085803983055</v>
+        <v>0.0535894792338163</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2731228795629619</v>
       </c>
       <c r="O6">
-        <v>1.945243980670853</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.089092559261985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.673715307425653</v>
+        <v>2.690380528417052</v>
       </c>
       <c r="C7">
-        <v>0.382583942163933</v>
+        <v>0.4648736565249862</v>
       </c>
       <c r="D7">
-        <v>0.05677802963481327</v>
+        <v>0.08712530271119334</v>
       </c>
       <c r="E7">
-        <v>0.04265311348617207</v>
+        <v>0.04783379674780885</v>
       </c>
       <c r="F7">
-        <v>0.7523356050782866</v>
+        <v>0.4771526005593358</v>
       </c>
       <c r="G7">
-        <v>0.0008206297813229679</v>
+        <v>0.2704787262999062</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002530091012638458</v>
       </c>
       <c r="J7">
-        <v>0.05492297068222518</v>
+        <v>0.2701842339920617</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2578837183166058</v>
       </c>
       <c r="L7">
-        <v>0.2599334547181513</v>
+        <v>0.05293380053712293</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2845075130841934</v>
       </c>
       <c r="O7">
-        <v>1.94696339936857</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.086807458378757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.229433362577538</v>
+        <v>3.246423098323817</v>
       </c>
       <c r="C8">
-        <v>0.4426909028970272</v>
+        <v>0.5350082099734266</v>
       </c>
       <c r="D8">
-        <v>0.0629975635565998</v>
+        <v>0.09552734865226853</v>
       </c>
       <c r="E8">
-        <v>0.04202722616021504</v>
+        <v>0.04719157514976935</v>
       </c>
       <c r="F8">
-        <v>0.76833564635497</v>
+        <v>0.4841607586754435</v>
       </c>
       <c r="G8">
-        <v>0.0008143505186208829</v>
+        <v>0.2747748037299829</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001328940415112889</v>
       </c>
       <c r="J8">
-        <v>0.05116382969847511</v>
+        <v>0.2647464264297525</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.239545632518146</v>
       </c>
       <c r="L8">
-        <v>0.3053813043886038</v>
+        <v>0.05019659301001533</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3344299194336458</v>
       </c>
       <c r="O8">
-        <v>1.966957726649724</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.084981046085289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.327864058960358</v>
+        <v>4.334607448550514</v>
       </c>
       <c r="C9">
-        <v>0.5609726870695795</v>
+        <v>0.6700198714075611</v>
       </c>
       <c r="D9">
-        <v>0.07552402570037486</v>
+        <v>0.1125352675947653</v>
       </c>
       <c r="E9">
-        <v>0.04128182452264006</v>
+        <v>0.0464641858191257</v>
       </c>
       <c r="F9">
-        <v>0.816658061684862</v>
+        <v>0.5074636463999838</v>
       </c>
       <c r="G9">
-        <v>0.0008027725763411598</v>
+        <v>0.290608168419638</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.000752923119338611</v>
       </c>
       <c r="J9">
-        <v>0.0445765092552719</v>
+        <v>0.2586079502315357</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2092281827847593</v>
       </c>
       <c r="L9">
-        <v>0.3960009757933562</v>
+        <v>0.04534585623527421</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4327901753216992</v>
       </c>
       <c r="O9">
-        <v>2.055797092854249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.106509701175781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.143673400474199</v>
+        <v>5.133986916235813</v>
       </c>
       <c r="C10">
-        <v>0.6484428614038222</v>
+        <v>0.7720063654916771</v>
       </c>
       <c r="D10">
-        <v>0.08497375335125668</v>
+        <v>0.1255045356062254</v>
       </c>
       <c r="E10">
-        <v>0.04105246813099761</v>
+        <v>0.04616790348288902</v>
       </c>
       <c r="F10">
-        <v>0.8642085816391756</v>
+        <v>0.5288250419532616</v>
       </c>
       <c r="G10">
-        <v>0.0007946782029791632</v>
+        <v>0.3054699429143923</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001982444078474366</v>
       </c>
       <c r="J10">
-        <v>0.04025026301273815</v>
+        <v>0.2561403716186348</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1896596635466654</v>
       </c>
       <c r="L10">
-        <v>0.4638280138666602</v>
+        <v>0.04206989958497542</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5069140783440105</v>
       </c>
       <c r="O10">
-        <v>2.156467952903824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.133405855197097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.517572974525535</v>
+        <v>5.497832359439371</v>
       </c>
       <c r="C11">
-        <v>0.6884370131781168</v>
+        <v>0.8230345972618807</v>
       </c>
       <c r="D11">
-        <v>0.08933726277485476</v>
+        <v>0.1316147521667546</v>
       </c>
       <c r="E11">
-        <v>0.04102307538696337</v>
+        <v>0.04599220204358723</v>
       </c>
       <c r="F11">
-        <v>0.8888705399942722</v>
+        <v>0.5375366091259508</v>
       </c>
       <c r="G11">
-        <v>0.0007910765977970062</v>
+        <v>0.3113357088622166</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003296317793952674</v>
       </c>
       <c r="J11">
-        <v>0.03840210081430406</v>
+        <v>0.2546258162810986</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1804789950985697</v>
       </c>
       <c r="L11">
-        <v>0.4950373716359167</v>
+        <v>0.04061359533595399</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.5423715536240792</v>
       </c>
       <c r="O11">
-        <v>2.211194314635918</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.142913961825542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.659636021054723</v>
+        <v>5.635747665163706</v>
       </c>
       <c r="C12">
-        <v>0.7036180275565016</v>
+        <v>0.8401994209746988</v>
       </c>
       <c r="D12">
-        <v>0.090999912361724</v>
+        <v>0.1338907082068488</v>
       </c>
       <c r="E12">
-        <v>0.04102324710282268</v>
+        <v>0.04598993538908935</v>
       </c>
       <c r="F12">
-        <v>0.8986828144908827</v>
+        <v>0.5421969194387515</v>
       </c>
       <c r="G12">
-        <v>0.0007897235759381473</v>
+        <v>0.3146836182938202</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.003658804595510823</v>
       </c>
       <c r="J12">
-        <v>0.03772026414358187</v>
+        <v>0.2546454969813539</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.177651494345767</v>
       </c>
       <c r="L12">
-        <v>0.5069138503600215</v>
+        <v>0.04009162581079284</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.5551383321407855</v>
       </c>
       <c r="O12">
-        <v>2.233314992338421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.150143848672542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.629017793265689</v>
+        <v>5.606054365842567</v>
       </c>
       <c r="C13">
-        <v>0.700346803668225</v>
+        <v>0.8360490827425622</v>
       </c>
       <c r="D13">
-        <v>0.09064135738336176</v>
+        <v>0.1333888429870029</v>
       </c>
       <c r="E13">
-        <v>0.04102269867475705</v>
+        <v>0.04600104048055798</v>
       </c>
       <c r="F13">
-        <v>0.8965478846909178</v>
+        <v>0.5414210461824922</v>
       </c>
       <c r="G13">
-        <v>0.0007900145045032717</v>
+        <v>0.3141525854346838</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003536217771387129</v>
       </c>
       <c r="J13">
-        <v>0.03786629516272733</v>
+        <v>0.2547392247186409</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1783626624043002</v>
       </c>
       <c r="L13">
-        <v>0.504353329783271</v>
+        <v>0.04020729738463269</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.5522407826171758</v>
       </c>
       <c r="O13">
-        <v>2.228486881028999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.149194740059755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.529250605924858</v>
+        <v>5.509182538094024</v>
       </c>
       <c r="C14">
-        <v>0.6896851996015982</v>
+        <v>0.8242541283814262</v>
       </c>
       <c r="D14">
-        <v>0.08947383802937736</v>
+        <v>0.1317970084790261</v>
       </c>
       <c r="E14">
-        <v>0.0410228598554081</v>
+        <v>0.04599651793526327</v>
       </c>
       <c r="F14">
-        <v>0.8896680899824077</v>
+        <v>0.5380166126326813</v>
       </c>
       <c r="G14">
-        <v>0.0007909650714287369</v>
+        <v>0.3116917134324311</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.003306831182250392</v>
       </c>
       <c r="J14">
-        <v>0.03834563979121164</v>
+        <v>0.2546689831597533</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1802897352161938</v>
       </c>
       <c r="L14">
-        <v>0.4960132474269017</v>
+        <v>0.04057203504409757</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.5433589597205355</v>
       </c>
       <c r="O14">
-        <v>2.212985519041609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.143766596537034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.468204572654997</v>
+        <v>5.449831235545901</v>
       </c>
       <c r="C15">
-        <v>0.6831595733964093</v>
+        <v>0.8179245374157063</v>
       </c>
       <c r="D15">
-        <v>0.08876006801625635</v>
+        <v>0.1308457107675594</v>
       </c>
       <c r="E15">
-        <v>0.04102444670445315</v>
+        <v>0.04597321734979332</v>
       </c>
       <c r="F15">
-        <v>0.8855168224626766</v>
+        <v>0.5354904922045947</v>
       </c>
       <c r="G15">
-        <v>0.000791548707691136</v>
+        <v>0.3098164617555881</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003261029101398805</v>
       </c>
       <c r="J15">
-        <v>0.03864162359777801</v>
+        <v>0.2544365159492017</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1812731901349061</v>
       </c>
       <c r="L15">
-        <v>0.4909125059061807</v>
+        <v>0.04078939276341609</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.5382125249163181</v>
       </c>
       <c r="O15">
-        <v>2.203675922760908</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.139264932591573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.119300473373414</v>
+        <v>5.110013700132072</v>
       </c>
       <c r="C16">
-        <v>0.6458338150151519</v>
+        <v>0.7761125650028475</v>
       </c>
       <c r="D16">
-        <v>0.08468997220554542</v>
+        <v>0.1252891409548909</v>
       </c>
       <c r="E16">
-        <v>0.04105594110524358</v>
+        <v>0.04599690356994657</v>
       </c>
       <c r="F16">
-        <v>0.8626609907275906</v>
+        <v>0.5243522088624104</v>
       </c>
       <c r="G16">
-        <v>0.0007949151341016596</v>
+        <v>0.3018343138909074</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002585833175513308</v>
       </c>
       <c r="J16">
-        <v>0.04037352257779592</v>
+        <v>0.2545541943179046</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1884747864156235</v>
       </c>
       <c r="L16">
-        <v>0.4617961437419353</v>
+        <v>0.04210168173513495</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.5070104048362083</v>
       </c>
       <c r="O16">
-        <v>2.153080595867351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.122360874631369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.906023526495858</v>
+        <v>4.901650680087357</v>
       </c>
       <c r="C17">
-        <v>0.622992469183373</v>
+        <v>0.7505388246126472</v>
       </c>
       <c r="D17">
-        <v>0.08221035568104895</v>
+        <v>0.1219079741892557</v>
       </c>
       <c r="E17">
-        <v>0.04109481852110974</v>
+        <v>0.04602830729956153</v>
       </c>
       <c r="F17">
-        <v>0.8494417122849427</v>
+        <v>0.5178521515442469</v>
       </c>
       <c r="G17">
-        <v>0.0007970004412261545</v>
+        <v>0.297200873735342</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002280880359823989</v>
       </c>
       <c r="J17">
-        <v>0.04146722770099931</v>
+        <v>0.2547797674819492</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1930884777306776</v>
       </c>
       <c r="L17">
-        <v>0.4440299258780271</v>
+        <v>0.0429244584257964</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.4879593152429607</v>
       </c>
       <c r="O17">
-        <v>2.124406745249701</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.112867907557543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.783609426559906</v>
+        <v>4.781894289527372</v>
       </c>
       <c r="C18">
-        <v>0.6098734441903275</v>
+        <v>0.7336063844471141</v>
       </c>
       <c r="D18">
-        <v>0.08079018072900368</v>
+        <v>0.1199179786513866</v>
       </c>
       <c r="E18">
-        <v>0.04112420010460305</v>
+        <v>0.04610815933996726</v>
       </c>
       <c r="F18">
-        <v>0.8421212086078214</v>
+        <v>0.5154207818312955</v>
       </c>
       <c r="G18">
-        <v>0.0007982074864945069</v>
+        <v>0.2956184756893876</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001898416342817733</v>
       </c>
       <c r="J18">
-        <v>0.04210753013303048</v>
+        <v>0.25547831908262</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1963567023644721</v>
       </c>
       <c r="L18">
-        <v>0.4338441687163623</v>
+        <v>0.0434238873320073</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.4763045611680354</v>
       </c>
       <c r="O18">
-        <v>2.108747628295873</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.110893202554294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.742204099272897</v>
+        <v>4.741305780558321</v>
       </c>
       <c r="C19">
-        <v>0.6054345834970434</v>
+        <v>0.7296124036027152</v>
       </c>
       <c r="D19">
-        <v>0.08031034220432076</v>
+        <v>0.1192883391134671</v>
       </c>
       <c r="E19">
-        <v>0.04113533855496776</v>
+        <v>0.04609327219303694</v>
       </c>
       <c r="F19">
-        <v>0.8396901028475696</v>
+        <v>0.5137004030710699</v>
       </c>
       <c r="G19">
-        <v>0.0007986175042843293</v>
+        <v>0.2943350799909368</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.00196144506992546</v>
       </c>
       <c r="J19">
-        <v>0.04232623172097583</v>
+        <v>0.2553276181341531</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1970548505238874</v>
       </c>
       <c r="L19">
-        <v>0.4304008877119401</v>
+        <v>0.04357881744856074</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.4729257295981739</v>
       </c>
       <c r="O19">
-        <v>2.103585556559722</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.107828656814377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.928700083181866</v>
+        <v>4.923832680117357</v>
       </c>
       <c r="C20">
-        <v>0.6254219851841469</v>
+        <v>0.7530815391161241</v>
       </c>
       <c r="D20">
-        <v>0.08247368375057107</v>
+        <v>0.1222625571612923</v>
       </c>
       <c r="E20">
-        <v>0.04108994969201163</v>
+        <v>0.04602869703267132</v>
       </c>
       <c r="F20">
-        <v>0.8508193886254674</v>
+        <v>0.5186249838593042</v>
       </c>
       <c r="G20">
-        <v>0.0007967776721109487</v>
+        <v>0.2977619604571018</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002289830502066437</v>
       </c>
       <c r="J20">
-        <v>0.04134963294082272</v>
+        <v>0.2547903299441288</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1926326256450572</v>
       </c>
       <c r="L20">
-        <v>0.4459177147170124</v>
+        <v>0.0428377312677356</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.4899267991444987</v>
       </c>
       <c r="O20">
-        <v>2.127372092101666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.114094779052905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.55854111435707</v>
+        <v>5.537562015030858</v>
       </c>
       <c r="C21">
-        <v>0.6928157339854408</v>
+        <v>0.8302449122703024</v>
       </c>
       <c r="D21">
-        <v>0.08981647955910432</v>
+        <v>0.1323255278023368</v>
       </c>
       <c r="E21">
-        <v>0.04102250139690966</v>
+        <v>0.04593571829881071</v>
       </c>
       <c r="F21">
-        <v>0.8916756926277287</v>
+        <v>0.5376870816473556</v>
       </c>
       <c r="G21">
-        <v>0.0007906855793493571</v>
+        <v>0.311308005253764</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003619228910715755</v>
       </c>
       <c r="J21">
-        <v>0.03820434897215019</v>
+        <v>0.254116329496739</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1791203527109619</v>
       </c>
       <c r="L21">
-        <v>0.4984612926075442</v>
+        <v>0.04044389523729419</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5467810046342692</v>
       </c>
       <c r="O21">
-        <v>2.217499785660067</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.141814824628113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.972989235144894</v>
+        <v>5.93920968284084</v>
       </c>
       <c r="C22">
-        <v>0.7370754698349344</v>
+        <v>0.8777383403033241</v>
       </c>
       <c r="D22">
-        <v>0.09467586920283821</v>
+        <v>0.1389185166699463</v>
       </c>
       <c r="E22">
-        <v>0.04104456970678072</v>
+        <v>0.04601009757733365</v>
       </c>
       <c r="F22">
-        <v>0.921156210859337</v>
+        <v>0.5529664409148012</v>
       </c>
       <c r="G22">
-        <v>0.0007867667635886932</v>
+        <v>0.3224675552063729</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.004545066477191995</v>
       </c>
       <c r="J22">
-        <v>0.03625418130194102</v>
+        <v>0.2549224619216801</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1717166188957293</v>
       </c>
       <c r="L22">
-        <v>0.533144420893862</v>
+        <v>0.03896487202632959</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5832198674844733</v>
       </c>
       <c r="O22">
-        <v>2.284605419384462</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.16742376193946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.751506762241377</v>
+        <v>5.724880531105896</v>
       </c>
       <c r="C23">
-        <v>0.7134312119389961</v>
+        <v>0.8493159340349337</v>
       </c>
       <c r="D23">
-        <v>0.09207644897837497</v>
+        <v>0.1353167699367503</v>
       </c>
       <c r="E23">
-        <v>0.04102655485297291</v>
+        <v>0.04603966558148187</v>
       </c>
       <c r="F23">
-        <v>0.9051544674140217</v>
+        <v>0.5462996452905529</v>
       </c>
       <c r="G23">
-        <v>0.000788852836059357</v>
+        <v>0.3177541579508159</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0037356667754187</v>
       </c>
       <c r="J23">
-        <v>0.03728509733957974</v>
+        <v>0.255130882342641</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1763290220813847</v>
       </c>
       <c r="L23">
-        <v>0.5145994704056136</v>
+        <v>0.03977368437861173</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5627590846972055</v>
       </c>
       <c r="O23">
-        <v>2.247999651585985</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.157728153711702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.918447389381811</v>
+        <v>4.913930965698796</v>
       </c>
       <c r="C24">
-        <v>0.6243235617364178</v>
+        <v>0.7471725494120562</v>
       </c>
       <c r="D24">
-        <v>0.08235461641498887</v>
+        <v>0.1219857232978114</v>
       </c>
       <c r="E24">
-        <v>0.04109212903065362</v>
+        <v>0.04614636032680863</v>
       </c>
       <c r="F24">
-        <v>0.850195673568976</v>
+        <v>0.5207926409845527</v>
       </c>
       <c r="G24">
-        <v>0.0007968783604979454</v>
+        <v>0.2996038973245732</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001807007814790929</v>
       </c>
       <c r="J24">
-        <v>0.04140276171826507</v>
+        <v>0.2558733929010728</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1939926496664146</v>
       </c>
       <c r="L24">
-        <v>0.4450641578392975</v>
+        <v>0.0429187800707711</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.4874955662896383</v>
       </c>
       <c r="O24">
-        <v>2.126028894829176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.120260693177684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.029436152684355</v>
+        <v>4.040230653062281</v>
       </c>
       <c r="C25">
-        <v>0.5288990840504084</v>
+        <v>0.6378083383623334</v>
       </c>
       <c r="D25">
-        <v>0.07209548654383013</v>
+        <v>0.1079733951495712</v>
       </c>
       <c r="E25">
-        <v>0.04142944758854838</v>
+        <v>0.04649923703675007</v>
       </c>
       <c r="F25">
-        <v>0.8016015422670506</v>
+        <v>0.4978805931476344</v>
       </c>
       <c r="G25">
-        <v>0.0008058295891078013</v>
+        <v>0.2836486235961999</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001070575287382525</v>
       </c>
       <c r="J25">
-        <v>0.04627109027212217</v>
+        <v>0.2588080526400631</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2157676145270457</v>
       </c>
       <c r="L25">
-        <v>0.3712925723315692</v>
+        <v>0.04656090406152102</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4074372083450442</v>
       </c>
       <c r="O25">
-        <v>2.025941972966052</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.091961156539824</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.396956060269474</v>
+        <v>3.402281269231253</v>
       </c>
       <c r="C2">
-        <v>0.5506335015766979</v>
+        <v>0.5555307760855897</v>
       </c>
       <c r="D2">
-        <v>0.09775745946816272</v>
+        <v>0.09791682203141505</v>
       </c>
       <c r="E2">
-        <v>0.04713617957527738</v>
+        <v>0.04541810861552875</v>
       </c>
       <c r="F2">
-        <v>0.4884488555690041</v>
+        <v>0.4717249796165888</v>
       </c>
       <c r="G2">
-        <v>0.2778916000796485</v>
+        <v>0.2475318588336393</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0008330642211933359</v>
+        <v>0.0006914382103113681</v>
       </c>
       <c r="J2">
-        <v>0.2643401373463519</v>
+        <v>0.29077000092623</v>
       </c>
       <c r="K2">
-        <v>0.2357947334788637</v>
+        <v>0.2210244629880691</v>
       </c>
       <c r="L2">
-        <v>0.04952578285739662</v>
+        <v>0.1202344088277645</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05358772373707854</v>
       </c>
       <c r="N2">
-        <v>0.3469219955014466</v>
+        <v>0.047068497027834</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3553185568754174</v>
       </c>
       <c r="Q2">
-        <v>1.090856055240906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.046387622512768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.960366537827156</v>
+        <v>2.965888032052305</v>
       </c>
       <c r="C3">
-        <v>0.4959617594788597</v>
+        <v>0.4936625131569201</v>
       </c>
       <c r="D3">
-        <v>0.09109700315246272</v>
+        <v>0.09118559698160311</v>
       </c>
       <c r="E3">
-        <v>0.04757610817358948</v>
+        <v>0.04590171198563553</v>
       </c>
       <c r="F3">
-        <v>0.4817898753092393</v>
+        <v>0.4663131367065532</v>
       </c>
       <c r="G3">
-        <v>0.273625378328795</v>
+        <v>0.2449841238444677</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001570996060851648</v>
+        <v>0.001136953922582506</v>
       </c>
       <c r="J3">
-        <v>0.2680677999297316</v>
+        <v>0.2923940405761485</v>
       </c>
       <c r="K3">
-        <v>0.2495341510940463</v>
+        <v>0.2340868482958474</v>
       </c>
       <c r="L3">
-        <v>0.05161635466762471</v>
+        <v>0.1266380240556213</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05812225706300911</v>
       </c>
       <c r="N3">
-        <v>0.307688272002423</v>
+        <v>0.0489253114360404</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3143702836926252</v>
       </c>
       <c r="Q3">
-        <v>1.089270508661912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.047611630589813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.691902590899019</v>
+        <v>2.697405742702529</v>
       </c>
       <c r="C4">
-        <v>0.4626056085561743</v>
+        <v>0.4560328768759234</v>
       </c>
       <c r="D4">
-        <v>0.08708431465520761</v>
+        <v>0.08713445672418629</v>
       </c>
       <c r="E4">
-        <v>0.04789738927824327</v>
+        <v>0.04624446892877643</v>
       </c>
       <c r="F4">
-        <v>0.4785480597228329</v>
+        <v>0.4636784176549824</v>
       </c>
       <c r="G4">
-        <v>0.2716379910612261</v>
+        <v>0.2440378279092528</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.002275973976955559</v>
+        <v>0.001619326322583881</v>
       </c>
       <c r="J4">
-        <v>0.2707731457425382</v>
+        <v>0.2935854020942799</v>
       </c>
       <c r="K4">
-        <v>0.2585085837936774</v>
+        <v>0.2425490837452529</v>
       </c>
       <c r="L4">
-        <v>0.05295756158694342</v>
+        <v>0.1308365359413202</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06148521066978629</v>
       </c>
       <c r="N4">
-        <v>0.2838190382133092</v>
+        <v>0.05011732411922232</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2894953713361588</v>
       </c>
       <c r="Q4">
-        <v>1.090500061171596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.050115973590266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.58237291669144</v>
+        <v>2.587835826356013</v>
       </c>
       <c r="C5">
-        <v>0.4497874985597718</v>
+        <v>0.4415121423815549</v>
       </c>
       <c r="D5">
-        <v>0.08548647578725621</v>
+        <v>0.08552205310476779</v>
       </c>
       <c r="E5">
-        <v>0.04802136982867999</v>
+        <v>0.04637649771486441</v>
       </c>
       <c r="F5">
-        <v>0.4770197458344683</v>
+        <v>0.4623692975383378</v>
       </c>
       <c r="G5">
-        <v>0.2706362968254368</v>
+        <v>0.2434708561336834</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.00269674300351852</v>
+        <v>0.001951284876818171</v>
       </c>
       <c r="J5">
-        <v>0.271796265207854</v>
+        <v>0.2939347490496118</v>
       </c>
       <c r="K5">
-        <v>0.2620937293486669</v>
+        <v>0.2459128088513154</v>
       </c>
       <c r="L5">
-        <v>0.05350874748934792</v>
+        <v>0.1324954976587911</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06297170521908679</v>
       </c>
       <c r="N5">
-        <v>0.2743874928489731</v>
+        <v>0.05060751004896646</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2796636377172632</v>
       </c>
       <c r="Q5">
-        <v>1.090425836490027</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.050482592478076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.564162315215754</v>
+        <v>2.569614945536898</v>
       </c>
       <c r="C6">
-        <v>0.4485525969339506</v>
+        <v>0.4399997409286129</v>
       </c>
       <c r="D6">
-        <v>0.0852451957611251</v>
+        <v>0.08527820597426228</v>
       </c>
       <c r="E6">
-        <v>0.04801877428841905</v>
+        <v>0.04637591719695244</v>
       </c>
       <c r="F6">
-        <v>0.4762745615571191</v>
+        <v>0.4616711825998507</v>
       </c>
       <c r="G6">
-        <v>0.2700593714209703</v>
+        <v>0.2429837635408916</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.002867158619566545</v>
+        <v>0.002122714761604527</v>
       </c>
       <c r="J6">
-        <v>0.2717511900935321</v>
+        <v>0.2937712933770058</v>
       </c>
       <c r="K6">
-        <v>0.2624493237889407</v>
+        <v>0.2462436820571412</v>
       </c>
       <c r="L6">
-        <v>0.0535894792338163</v>
+        <v>0.1326309089344093</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06319367475523796</v>
       </c>
       <c r="N6">
-        <v>0.2731228795629619</v>
+        <v>0.05067950294035528</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2783304225141023</v>
       </c>
       <c r="Q6">
-        <v>1.089092559261985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.049254425479148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.690380528417052</v>
+        <v>2.695854648196416</v>
       </c>
       <c r="C7">
-        <v>0.4648736565249862</v>
+        <v>0.4578926836670121</v>
       </c>
       <c r="D7">
-        <v>0.08712530271119334</v>
+        <v>0.08730854959557632</v>
       </c>
       <c r="E7">
-        <v>0.04783379674780885</v>
+        <v>0.04619782983512444</v>
       </c>
       <c r="F7">
-        <v>0.4771526005593358</v>
+        <v>0.4616119023189924</v>
       </c>
       <c r="G7">
-        <v>0.2704787262999062</v>
+        <v>0.2450386954981383</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.002530091012638458</v>
+        <v>0.0019173623340345</v>
       </c>
       <c r="J7">
-        <v>0.2701842339920617</v>
+        <v>0.2897097892387421</v>
       </c>
       <c r="K7">
-        <v>0.2578837183166058</v>
+        <v>0.2417435447394443</v>
       </c>
       <c r="L7">
-        <v>0.05293380053712293</v>
+        <v>0.1303487734799127</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06136848465696243</v>
       </c>
       <c r="N7">
-        <v>0.2845075130841934</v>
+        <v>0.05009131922722321</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.290155786671761</v>
       </c>
       <c r="Q7">
-        <v>1.086807458378757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.044459995041819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.246423098323817</v>
+        <v>3.251753577368845</v>
       </c>
       <c r="C8">
-        <v>0.5350082099734266</v>
+        <v>0.5360948417241787</v>
       </c>
       <c r="D8">
-        <v>0.09552734865226853</v>
+        <v>0.09610910446885157</v>
       </c>
       <c r="E8">
-        <v>0.04719157514976935</v>
+        <v>0.04554249099630781</v>
       </c>
       <c r="F8">
-        <v>0.4841607586754435</v>
+        <v>0.4656092060216963</v>
       </c>
       <c r="G8">
-        <v>0.2747748037299829</v>
+        <v>0.252128647451066</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.001328940415112889</v>
+        <v>0.001153662442549219</v>
       </c>
       <c r="J8">
-        <v>0.2647464264297525</v>
+        <v>0.2799114758308718</v>
       </c>
       <c r="K8">
-        <v>0.239545632518146</v>
+        <v>0.2239375280424252</v>
       </c>
       <c r="L8">
-        <v>0.05019659301001533</v>
+        <v>0.1215923817414346</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05468469864293546</v>
       </c>
       <c r="N8">
-        <v>0.3344299194336458</v>
+        <v>0.04765037523147608</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3421622865435126</v>
       </c>
       <c r="Q8">
-        <v>1.084981046085289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.034900625703202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.334607448550514</v>
+        <v>4.338467442329943</v>
       </c>
       <c r="C9">
-        <v>0.6700198714075611</v>
+        <v>0.6894643088162695</v>
       </c>
       <c r="D9">
-        <v>0.1125352675947653</v>
+        <v>0.1134495877564206</v>
       </c>
       <c r="E9">
-        <v>0.0464641858191257</v>
+        <v>0.04468780704091913</v>
       </c>
       <c r="F9">
-        <v>0.5074636463999838</v>
+        <v>0.4841895566202936</v>
       </c>
       <c r="G9">
-        <v>0.290608168419638</v>
+        <v>0.2655151095962651</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.000752923119338611</v>
+        <v>0.0009840695585152659</v>
       </c>
       <c r="J9">
-        <v>0.2586079502315357</v>
+        <v>0.2748525098005885</v>
       </c>
       <c r="K9">
-        <v>0.2092281827847593</v>
+        <v>0.1945541243130755</v>
       </c>
       <c r="L9">
-        <v>0.04534585623527421</v>
+        <v>0.1075873865727957</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.04666341915856353</v>
       </c>
       <c r="N9">
-        <v>0.4327901753216992</v>
+        <v>0.04334453500265001</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4450384518408441</v>
       </c>
       <c r="Q9">
-        <v>1.106509701175781</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.044809488681125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.133986916235813</v>
+        <v>5.135527853317797</v>
       </c>
       <c r="C10">
-        <v>0.7720063654916771</v>
+        <v>0.8032474037831321</v>
       </c>
       <c r="D10">
-        <v>0.1255045356062254</v>
+        <v>0.1274947799559243</v>
       </c>
       <c r="E10">
-        <v>0.04616790348288902</v>
+        <v>0.04436244074049789</v>
       </c>
       <c r="F10">
-        <v>0.5288250419532616</v>
+        <v>0.49712521135082</v>
       </c>
       <c r="G10">
-        <v>0.3054699429143923</v>
+        <v>0.2913741944303538</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.001982444078474366</v>
+        <v>0.002254326353165581</v>
       </c>
       <c r="J10">
-        <v>0.2561403716186348</v>
+        <v>0.2547440141285406</v>
       </c>
       <c r="K10">
-        <v>0.1896596635466654</v>
+        <v>0.1740800283895858</v>
       </c>
       <c r="L10">
-        <v>0.04206989958497542</v>
+        <v>0.09816715415891242</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.04321339144906133</v>
       </c>
       <c r="N10">
-        <v>0.5069140783440105</v>
+        <v>0.04042206825812089</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5225687380467292</v>
       </c>
       <c r="Q10">
-        <v>1.133405855197097</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.048865975398002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.497832359439371</v>
+        <v>5.497664380905633</v>
       </c>
       <c r="C11">
-        <v>0.8230345972618807</v>
+        <v>0.8555757584188939</v>
       </c>
       <c r="D11">
-        <v>0.1316147521667546</v>
+        <v>0.1355612425668795</v>
       </c>
       <c r="E11">
-        <v>0.04599220204358723</v>
+        <v>0.04433787984165249</v>
       </c>
       <c r="F11">
-        <v>0.5375366091259508</v>
+        <v>0.4947164451889279</v>
       </c>
       <c r="G11">
-        <v>0.3113357088622166</v>
+        <v>0.3261344310901109</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.003296317793952674</v>
+        <v>0.003571423240562588</v>
       </c>
       <c r="J11">
-        <v>0.2546258162810986</v>
+        <v>0.2195334397748994</v>
       </c>
       <c r="K11">
-        <v>0.1804789950985697</v>
+        <v>0.1626807325400179</v>
       </c>
       <c r="L11">
-        <v>0.04061359533595399</v>
+        <v>0.09339522378184739</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.04107154480631259</v>
       </c>
       <c r="N11">
-        <v>0.5423715536240792</v>
+        <v>0.03910343578577535</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.5593898708507226</v>
       </c>
       <c r="Q11">
-        <v>1.142913961825542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.027074490621388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.635747665163706</v>
+        <v>5.634837363807321</v>
       </c>
       <c r="C12">
-        <v>0.8401994209746988</v>
+        <v>0.8726518183744929</v>
       </c>
       <c r="D12">
-        <v>0.1338907082068488</v>
+        <v>0.1387780616952767</v>
       </c>
       <c r="E12">
-        <v>0.04598993538908935</v>
+        <v>0.0444129078122657</v>
       </c>
       <c r="F12">
-        <v>0.5421969194387515</v>
+        <v>0.4941491425461919</v>
       </c>
       <c r="G12">
-        <v>0.3146836182938202</v>
+        <v>0.3440523973696656</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.003658804595510823</v>
+        <v>0.003875562222225959</v>
       </c>
       <c r="J12">
-        <v>0.2546454969813539</v>
+        <v>0.2054109340457799</v>
       </c>
       <c r="K12">
-        <v>0.177651494345767</v>
+        <v>0.1586992503410229</v>
       </c>
       <c r="L12">
-        <v>0.04009162581079284</v>
+        <v>0.09175786078256731</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04042247795427123</v>
       </c>
       <c r="N12">
-        <v>0.5551383321407855</v>
+        <v>0.03862204019107462</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.5726484346837566</v>
       </c>
       <c r="Q12">
-        <v>1.150143848672542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.019548011315237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.606054365842567</v>
+        <v>5.60530779030114</v>
       </c>
       <c r="C13">
-        <v>0.8360490827425622</v>
+        <v>0.8685364526560022</v>
       </c>
       <c r="D13">
-        <v>0.1333888429870029</v>
+        <v>0.1380642051063319</v>
       </c>
       <c r="E13">
-        <v>0.04600104048055798</v>
+        <v>0.04440585202138259</v>
       </c>
       <c r="F13">
-        <v>0.5414210461824922</v>
+        <v>0.4945247544427218</v>
       </c>
       <c r="G13">
-        <v>0.3141525854346838</v>
+        <v>0.3402156981910309</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.003536217771387129</v>
+        <v>0.003756951577231327</v>
       </c>
       <c r="J13">
-        <v>0.2547392247186409</v>
+        <v>0.2085322436794428</v>
       </c>
       <c r="K13">
-        <v>0.1783626624043002</v>
+        <v>0.1596480639488149</v>
       </c>
       <c r="L13">
-        <v>0.04020729738463269</v>
+        <v>0.09213602535301924</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04060289234292291</v>
       </c>
       <c r="N13">
-        <v>0.5522407826171758</v>
+        <v>0.03872736357618178</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.5696466053929896</v>
       </c>
       <c r="Q13">
-        <v>1.149194740059755</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.021839343564167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.509182538094024</v>
+        <v>5.508955248610619</v>
       </c>
       <c r="C14">
-        <v>0.8242541283814262</v>
+        <v>0.8567951585059461</v>
       </c>
       <c r="D14">
-        <v>0.1317970084790261</v>
+        <v>0.1358167377436956</v>
       </c>
       <c r="E14">
-        <v>0.04599651793526327</v>
+        <v>0.04434788347080243</v>
       </c>
       <c r="F14">
-        <v>0.5380166126326813</v>
+        <v>0.4947786918692501</v>
       </c>
       <c r="G14">
-        <v>0.3116917134324311</v>
+        <v>0.3276134060461686</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.003306831182250392</v>
+        <v>0.003573460669433537</v>
       </c>
       <c r="J14">
-        <v>0.2546689831597533</v>
+        <v>0.2184118696202617</v>
       </c>
       <c r="K14">
-        <v>0.1802897352161938</v>
+        <v>0.1623926422528257</v>
       </c>
       <c r="L14">
-        <v>0.04057203504409757</v>
+        <v>0.093271823561758</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.0410353584891574</v>
       </c>
       <c r="N14">
-        <v>0.5433589597205355</v>
+        <v>0.03906454974389262</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.5604184580177787</v>
       </c>
       <c r="Q14">
-        <v>1.143766596537034</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.026744096628079</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.449831235545901</v>
+        <v>5.449910257400177</v>
       </c>
       <c r="C15">
-        <v>0.8179245374157063</v>
+        <v>0.8504457146045183</v>
       </c>
       <c r="D15">
-        <v>0.1308457107675594</v>
+        <v>0.1344906605628893</v>
       </c>
       <c r="E15">
-        <v>0.04597321734979332</v>
+        <v>0.04429583916796176</v>
       </c>
       <c r="F15">
-        <v>0.5354904922045947</v>
+        <v>0.4943990298276333</v>
       </c>
       <c r="G15">
-        <v>0.3098164617555881</v>
+        <v>0.3200213785193426</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.003261029101398805</v>
+        <v>0.003572674570949452</v>
       </c>
       <c r="J15">
-        <v>0.2544365159492017</v>
+        <v>0.2242282620281628</v>
       </c>
       <c r="K15">
-        <v>0.1812731901349061</v>
+        <v>0.1638843798822371</v>
       </c>
       <c r="L15">
-        <v>0.04078939276341609</v>
+        <v>0.09391386625256981</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04121971299391447</v>
       </c>
       <c r="N15">
-        <v>0.5382125249163181</v>
+        <v>0.03926791445894362</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.5550555271802153</v>
       </c>
       <c r="Q15">
-        <v>1.139264932591573</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.028321227007808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.110013700132072</v>
+        <v>5.111656733360178</v>
       </c>
       <c r="C16">
-        <v>0.7761125650028475</v>
+        <v>0.8073574002438306</v>
       </c>
       <c r="D16">
-        <v>0.1252891409548909</v>
+        <v>0.1271770348334798</v>
       </c>
       <c r="E16">
-        <v>0.04599690356994657</v>
+        <v>0.04419293869444196</v>
       </c>
       <c r="F16">
-        <v>0.5243522088624104</v>
+        <v>0.4934717479582531</v>
       </c>
       <c r="G16">
-        <v>0.3018343138909074</v>
+        <v>0.2863743524545797</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.002585833175513308</v>
+        <v>0.003003393609498417</v>
       </c>
       <c r="J16">
-        <v>0.2545541943179046</v>
+        <v>0.2553267481993515</v>
       </c>
       <c r="K16">
-        <v>0.1884747864156235</v>
+        <v>0.1732787690295829</v>
       </c>
       <c r="L16">
-        <v>0.04210168173513495</v>
+        <v>0.0979506966548902</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04271581826555249</v>
       </c>
       <c r="N16">
-        <v>0.5070104048362083</v>
+        <v>0.04047070186339807</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.5225658445780681</v>
       </c>
       <c r="Q16">
-        <v>1.122360874631369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.040218730019916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.901650680087357</v>
+        <v>4.904091989460937</v>
       </c>
       <c r="C17">
-        <v>0.7505388246126472</v>
+        <v>0.7800943436767795</v>
       </c>
       <c r="D17">
-        <v>0.1219079741892557</v>
+        <v>0.1230454819506406</v>
       </c>
       <c r="E17">
-        <v>0.04602830729956153</v>
+        <v>0.04418268383616919</v>
       </c>
       <c r="F17">
-        <v>0.5178521515442469</v>
+        <v>0.4916093184985399</v>
       </c>
       <c r="G17">
-        <v>0.297200873735342</v>
+        <v>0.2715722732269157</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.002280880359823989</v>
+        <v>0.00273714289539928</v>
       </c>
       <c r="J17">
-        <v>0.2547797674819492</v>
+        <v>0.2701418725842402</v>
       </c>
       <c r="K17">
-        <v>0.1930884777306776</v>
+        <v>0.1788152507533489</v>
       </c>
       <c r="L17">
-        <v>0.0429244584257964</v>
+        <v>0.1004159620203549</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04360831408552457</v>
       </c>
       <c r="N17">
-        <v>0.4879593152429607</v>
+        <v>0.04121845625766851</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.5026830623261418</v>
       </c>
       <c r="Q17">
-        <v>1.112867907557543</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.043742733724429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.781894289527372</v>
+        <v>4.784738190377084</v>
       </c>
       <c r="C18">
-        <v>0.7336063844471141</v>
+        <v>0.7618221945307937</v>
       </c>
       <c r="D18">
-        <v>0.1199179786513866</v>
+        <v>0.1207367347388129</v>
       </c>
       <c r="E18">
-        <v>0.04610815933996726</v>
+        <v>0.04424798423806742</v>
       </c>
       <c r="F18">
-        <v>0.5154207818312955</v>
+        <v>0.4912145884692336</v>
       </c>
       <c r="G18">
-        <v>0.2956184756893876</v>
+        <v>0.2659046163757992</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.001898416342817733</v>
+        <v>0.002316227766941736</v>
       </c>
       <c r="J18">
-        <v>0.25547831908262</v>
+        <v>0.2771427611445887</v>
       </c>
       <c r="K18">
-        <v>0.1963567023644721</v>
+        <v>0.1823898451720272</v>
       </c>
       <c r="L18">
-        <v>0.0434238873320073</v>
+        <v>0.1019985529774114</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.04430353415282795</v>
       </c>
       <c r="N18">
-        <v>0.4763045611680354</v>
+        <v>0.04166411896611866</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.4905386134633716</v>
       </c>
       <c r="Q18">
-        <v>1.110893202554294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.047422309423666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.741305780558321</v>
+        <v>4.74427703941501</v>
       </c>
       <c r="C19">
-        <v>0.7296124036027152</v>
+        <v>0.7573599266144981</v>
       </c>
       <c r="D19">
-        <v>0.1192883391134671</v>
+        <v>0.1200173456774252</v>
       </c>
       <c r="E19">
-        <v>0.04609327219303694</v>
+        <v>0.04423219052175753</v>
       </c>
       <c r="F19">
-        <v>0.5137004030710699</v>
+        <v>0.4901317791065409</v>
       </c>
       <c r="G19">
-        <v>0.2943350799909368</v>
+        <v>0.2635675839524652</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.00196144506992546</v>
+        <v>0.002404306049209382</v>
       </c>
       <c r="J19">
-        <v>0.2553276181341531</v>
+        <v>0.2787691354091422</v>
       </c>
       <c r="K19">
-        <v>0.1970548505238874</v>
+        <v>0.1832196707744966</v>
       </c>
       <c r="L19">
-        <v>0.04357881744856074</v>
+        <v>0.1023957061170915</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04439683573553843</v>
       </c>
       <c r="N19">
-        <v>0.4729257295981739</v>
+        <v>0.04180604785423214</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.486990073082282</v>
       </c>
       <c r="Q19">
-        <v>1.107828656814377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.046134540609728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.923832680117357</v>
+        <v>4.926194855780068</v>
       </c>
       <c r="C20">
-        <v>0.7530815391161241</v>
+        <v>0.782846294838123</v>
       </c>
       <c r="D20">
-        <v>0.1222625571612923</v>
+        <v>0.1234681796505015</v>
       </c>
       <c r="E20">
-        <v>0.04602869703267132</v>
+        <v>0.0441860282470028</v>
       </c>
       <c r="F20">
-        <v>0.5186249838593042</v>
+        <v>0.4919437286857402</v>
       </c>
       <c r="G20">
-        <v>0.2977619604571018</v>
+        <v>0.2730203097271939</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.002289830502066437</v>
+        <v>0.002738735452729735</v>
       </c>
       <c r="J20">
-        <v>0.2547903299441288</v>
+        <v>0.268801661293665</v>
       </c>
       <c r="K20">
-        <v>0.1926326256450572</v>
+        <v>0.1782714071982454</v>
       </c>
       <c r="L20">
-        <v>0.0428377312677356</v>
+        <v>0.1001679617456919</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.0435283405954543</v>
       </c>
       <c r="N20">
-        <v>0.4899267991444987</v>
+        <v>0.04113943811368204</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5047407010619764</v>
       </c>
       <c r="Q20">
-        <v>1.114094779052905</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.043741344013313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.537562015030858</v>
+        <v>5.537064128911425</v>
       </c>
       <c r="C21">
-        <v>0.8302449122703024</v>
+        <v>0.8613198351912956</v>
       </c>
       <c r="D21">
-        <v>0.1323255278023368</v>
+        <v>0.1370519997211659</v>
       </c>
       <c r="E21">
-        <v>0.04593571829881071</v>
+        <v>0.04436392313792226</v>
       </c>
       <c r="F21">
-        <v>0.5376870816473556</v>
+        <v>0.490959892612878</v>
       </c>
       <c r="G21">
-        <v>0.311308005253764</v>
+        <v>0.3387688790375449</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.003619228910715755</v>
+        <v>0.003918982129146542</v>
       </c>
       <c r="J21">
-        <v>0.254116329496739</v>
+        <v>0.2072636126218299</v>
       </c>
       <c r="K21">
-        <v>0.1791203527109619</v>
+        <v>0.1604546045677129</v>
       </c>
       <c r="L21">
-        <v>0.04044389523729419</v>
+        <v>0.09258128351091166</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.04039829325256683</v>
       </c>
       <c r="N21">
-        <v>0.5467810046342692</v>
+        <v>0.03894268511156018</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5638624550579436</v>
       </c>
       <c r="Q21">
-        <v>1.141814824628113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.014870932042172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.93920968284084</v>
+        <v>5.93649509065051</v>
       </c>
       <c r="C22">
-        <v>0.8777383403033241</v>
+        <v>0.9089942930195889</v>
       </c>
       <c r="D22">
-        <v>0.1389185166699463</v>
+        <v>0.1462648035187044</v>
       </c>
       <c r="E22">
-        <v>0.04601009757733365</v>
+        <v>0.04464803807618267</v>
       </c>
       <c r="F22">
-        <v>0.5529664409148012</v>
+        <v>0.4916417020680655</v>
       </c>
       <c r="G22">
-        <v>0.3224675552063729</v>
+        <v>0.3915475429812432</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.004545066477191995</v>
+        <v>0.004595024975858841</v>
       </c>
       <c r="J22">
-        <v>0.2549224619216801</v>
+        <v>0.175049939486339</v>
       </c>
       <c r="K22">
-        <v>0.1717166188957293</v>
+        <v>0.149804335546035</v>
       </c>
       <c r="L22">
-        <v>0.03896487202632959</v>
+        <v>0.08822903962969342</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.03895611599677551</v>
       </c>
       <c r="N22">
-        <v>0.5832198674844733</v>
+        <v>0.03757796254581991</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6017587315140389</v>
       </c>
       <c r="Q22">
-        <v>1.16742376193946</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9993953995217453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.724880531105896</v>
+        <v>5.723462584578954</v>
       </c>
       <c r="C23">
-        <v>0.8493159340349337</v>
+        <v>0.8815240143839844</v>
       </c>
       <c r="D23">
-        <v>0.1353167699367503</v>
+        <v>0.1408700812664705</v>
       </c>
       <c r="E23">
-        <v>0.04603966558148187</v>
+        <v>0.0445174560620849</v>
       </c>
       <c r="F23">
-        <v>0.5462996452905529</v>
+        <v>0.4945244319973483</v>
       </c>
       <c r="G23">
-        <v>0.3177541579508159</v>
+        <v>0.3577223675562067</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.0037356667754187</v>
+        <v>0.003870128362089886</v>
       </c>
       <c r="J23">
-        <v>0.255130882342641</v>
+        <v>0.1965189235591822</v>
       </c>
       <c r="K23">
-        <v>0.1763290220813847</v>
+        <v>0.1564700527150791</v>
       </c>
       <c r="L23">
-        <v>0.03977368437861173</v>
+        <v>0.09081913513512951</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04016656026327681</v>
       </c>
       <c r="N23">
-        <v>0.5627590846972055</v>
+        <v>0.03832153283922968</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.5805804065721674</v>
       </c>
       <c r="Q23">
-        <v>1.157728153711702</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.016570232697134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.913930965698796</v>
+        <v>4.916327802960382</v>
       </c>
       <c r="C24">
-        <v>0.7471725494120562</v>
+        <v>0.7767382501054385</v>
       </c>
       <c r="D24">
-        <v>0.1219857232978114</v>
+        <v>0.12316116365119</v>
       </c>
       <c r="E24">
-        <v>0.04614636032680863</v>
+        <v>0.0442967428268819</v>
       </c>
       <c r="F24">
-        <v>0.5207926409845527</v>
+        <v>0.4941841097104529</v>
       </c>
       <c r="G24">
-        <v>0.2996038973245732</v>
+        <v>0.27437025146682</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001807007814790929</v>
+        <v>0.002156960824056142</v>
       </c>
       <c r="J24">
-        <v>0.2558733929010728</v>
+        <v>0.2704072668662576</v>
       </c>
       <c r="K24">
-        <v>0.1939926496664146</v>
+        <v>0.1795153864468109</v>
       </c>
       <c r="L24">
-        <v>0.0429187800707711</v>
+        <v>0.1006420926510652</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.04396148135929856</v>
       </c>
       <c r="N24">
-        <v>0.4874955662896383</v>
+        <v>0.04120082668762537</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.502273333330379</v>
       </c>
       <c r="Q24">
-        <v>1.120260693177684</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.050061047094644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.040230653062281</v>
+        <v>4.044692777988928</v>
       </c>
       <c r="C25">
-        <v>0.6378083383623334</v>
+        <v>0.6528271242123935</v>
       </c>
       <c r="D25">
-        <v>0.1079733951495712</v>
+        <v>0.1085984317977307</v>
       </c>
       <c r="E25">
-        <v>0.04649923703675007</v>
+        <v>0.04474549539569139</v>
       </c>
       <c r="F25">
-        <v>0.4978805931476344</v>
+        <v>0.4771440216157501</v>
       </c>
       <c r="G25">
-        <v>0.2836486235961999</v>
+        <v>0.2562647676830849</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.001070575287382525</v>
+        <v>0.001319425799001905</v>
       </c>
       <c r="J25">
-        <v>0.2588080526400631</v>
+        <v>0.279456698643834</v>
       </c>
       <c r="K25">
-        <v>0.2157676145270457</v>
+        <v>0.2013435282812672</v>
       </c>
       <c r="L25">
-        <v>0.04656090406152102</v>
+        <v>0.110823700905998</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.04807245759348788</v>
       </c>
       <c r="N25">
-        <v>0.4074372083450442</v>
+        <v>0.04443721697126923</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4184459064528312</v>
       </c>
       <c r="Q25">
-        <v>1.091961156539824</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.037086258808912</v>
       </c>
     </row>
   </sheetData>
